--- a/IO_M2.1history_new/RunControl_history_new.xlsx
+++ b/IO_M2.1history_new/RunControl_history_new.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="346">
   <si>
     <t>Sheet #</t>
   </si>
@@ -1090,9 +1090,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>A1F075_O30pA10_a</t>
-  </si>
-  <si>
     <t>external</t>
   </si>
   <si>
@@ -1100,6 +1097,15 @@
   </si>
   <si>
     <t>H1F075_O30pA5_95</t>
+  </si>
+  <si>
+    <t>H1F075_O30pA5_a</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>save.indiv</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1360,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,13 +1369,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2019,58 +2025,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="98.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="9" width="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125"/>
-    <col min="12" max="13" width="22" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16"/>
-    <col min="22" max="23" width="12.7109375"/>
-    <col min="24" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="28" width="12.7109375"/>
-    <col min="29" max="29" width="11.140625" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" style="24"/>
-    <col min="31" max="34" width="12.7109375"/>
-    <col min="35" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" customWidth="1"/>
-    <col min="41" max="42" width="11.7109375" customWidth="1"/>
-    <col min="43" max="43" width="13.140625" customWidth="1"/>
-    <col min="44" max="47" width="12.7109375"/>
-    <col min="50" max="50" width="9" customWidth="1"/>
-    <col min="51" max="1037" width="8.5703125"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="10" width="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125"/>
+    <col min="13" max="14" width="22" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16"/>
+    <col min="23" max="24" width="12.7109375"/>
+    <col min="25" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="29" width="12.7109375"/>
+    <col min="30" max="30" width="11.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" style="24"/>
+    <col min="32" max="35" width="12.7109375"/>
+    <col min="36" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="42" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="48" width="12.7109375"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
+    <col min="52" max="1038" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AR1" s="1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AS1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="4" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -2080,7 +2086,7 @@
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -2090,212 +2096,214 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AI2" s="4" t="s">
+      <c r="AE2" s="24"/>
+      <c r="AJ2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="6"/>
       <c r="AK2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="4" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT2" s="4" t="s">
+      <c r="AU2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="4"/>
-      <c r="AI3" s="4" t="s">
+      <c r="U3" s="4"/>
+      <c r="AJ3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AP3" s="4"/>
-      <c r="AS3" s="4" t="s">
+      <c r="AQ3" s="4"/>
+      <c r="AT3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:51" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4"/>
+      <c r="E4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="27"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="27"/>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="29"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
       <c r="Y4" s="29"/>
-      <c r="Z4" s="45" t="s">
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG4" s="42" t="s">
+      <c r="AH4" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="21" t="s">
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="AK4" s="21"/>
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="20"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="20"/>
     </row>
-    <row r="5" spans="1:50" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
@@ -2306,150 +2314,153 @@
         <v>73</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="U5" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Z5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AB5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="24" t="s">
+      <c r="AE5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="9" t="s">
+      <c r="AG5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AN5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AO5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AR5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AS5" s="9" t="s">
+      <c r="AT5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AU5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AV5" s="9" t="s">
+      <c r="AW5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AW5" s="9" t="s">
+      <c r="AX5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="AX5" s="9" t="s">
+      <c r="AY5" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>246</v>
@@ -2457,391 +2468,555 @@
       <c r="C6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>205</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>185</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>500</v>
-      </c>
-      <c r="H6" t="s">
-        <v>109</v>
       </c>
       <c r="I6" t="s">
         <v>109</v>
       </c>
       <c r="J6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" t="s">
         <v>202</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>166</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>209</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>196</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <v>0</v>
       </c>
-      <c r="O6" s="18" t="b">
+      <c r="P6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="26">
+      <c r="Q6" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>75</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>50</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>60</v>
       </c>
-      <c r="U6" s="26">
+      <c r="V6" s="26">
         <v>0.02</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10</v>
-      </c>
-      <c r="X6" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y6" s="26">
         <v>0.04</v>
       </c>
       <c r="Z6" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA6" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="AB6" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="AC6" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC6" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE6" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AF6" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>112</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>30</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>115</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>200</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AP6" s="17">
+      <c r="AQ6" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>200</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AT6" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AU6" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AV6" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV6" s="18" t="b">
+      <c r="AW6" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW6" s="18" t="b">
+      <c r="AX6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX6" s="18" t="b">
+      <c r="AY6" s="18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>246</v>
       </c>
       <c r="C7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>205</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>185</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>500</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>109</v>
       </c>
       <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
         <v>202</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>166</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>209</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>0</v>
       </c>
-      <c r="O7" s="18" t="b">
+      <c r="P7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="26">
+      <c r="Q7" s="26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>75</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>50</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>60</v>
       </c>
-      <c r="U7" s="26">
+      <c r="V7" s="26">
         <v>0.02</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>10</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0.04</v>
       </c>
       <c r="Y7" s="26">
         <v>0.04</v>
       </c>
       <c r="Z7" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA7" s="26">
         <v>0.03</v>
       </c>
-      <c r="AA7" s="26">
+      <c r="AB7" s="26">
         <v>0.01</v>
       </c>
-      <c r="AB7" s="26">
+      <c r="AC7" s="26">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AC7" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE7" s="41">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AF7" s="26">
         <v>0.12</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>112</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>30</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>115</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>200</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AN7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AQ7" s="17">
         <v>0.75</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>200</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AT7" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AU7" s="12">
         <v>0.14499999999999999</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AV7" s="12">
         <v>0.05</v>
       </c>
-      <c r="AV7" s="18" t="b">
+      <c r="AW7" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW7" s="18" t="b">
+      <c r="AX7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="AX7" s="18" t="b">
+      <c r="AY7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>500</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>75</v>
+      </c>
+      <c r="T9">
+        <v>50</v>
+      </c>
+      <c r="U9">
+        <v>60</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD9" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE9" s="41">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AF9" s="26">
+        <v>0.12</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ9">
+        <v>30</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9">
+        <v>5</v>
+      </c>
+      <c r="AM9">
+        <v>200</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ9" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="AR9">
+        <v>200</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT9" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="AU9" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AV9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AW9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="P4:W4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AD4:AF4"/>
   </mergeCells>
   <dataValidations count="21">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN7 AN9">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6:AI7 AI9">
       <formula1>"cd,cp,sl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH7 AH9">
       <formula1>"open,closed"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR6:AR7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS6:AS7 AS9">
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7 O6:O7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D9 P6:P7 P9 C6:D7 D8">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="U6:U7 AA6:AA7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-10% please" sqref="V6:V7 AB6:AB7 V9 AB9">
       <formula1>0</formula1>
       <formula2>0.1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="V6:W7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0-15" sqref="W6:X7 W9:X9">
       <formula1>0</formula1>
       <formula2>15</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AB6:AB7 AD6:AD7 X6:Z7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC7 AE6:AE7 Y6:AA7 AC9 AE9 Y9:AA9">
       <formula1>0</formula1>
       <formula2>0.2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AI6:AI7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 0 to 30, please" sqref="AJ6:AJ7 AJ9">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AS6:AT7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75%" sqref="AT6:AU7 AT9:AU9">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AU6:AU7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-30%" sqref="AV6:AV7 AV9">
       <formula1>0</formula1>
       <formula2>0.3</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AE6:AE7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-75% please" sqref="AF6:AF7 AF9">
       <formula1>0</formula1>
       <formula2>0.75</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AK6:AK7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer, 1 to 30" sqref="AL6:AL7 AL9">
       <formula1>1</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL6:AL7">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM6:AM7 AM9">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN6:AN7">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO7 AO9">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AC6:AC7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV6:AX7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Decimal, 0-20% please" sqref="AD6:AD7 AD9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW6:AY7 AW9:AY9">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO6:AO7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP7 AP9">
       <formula1>"MA,AL,AL_pct"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP6:AP7">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ6:AQ7 AQ9">
       <formula1>0</formula1>
       <formula2>1.5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="R6:R7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Integer 55 to 65, please" sqref="S6:S7 S9">
       <formula1>35</formula1>
       <formula2>80</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:I7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:J7 I9:J9">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2854,37 +3029,37 @@
           <x14:formula1>
             <xm:f>DropDowns!$A$57:$A$61</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K7</xm:sqref>
+          <xm:sqref>L6:L7 L9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$64:$A$71</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L7</xm:sqref>
+          <xm:sqref>M6:M7 M9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$45:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E7</xm:sqref>
+          <xm:sqref>F6:F7 F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$29:$A$42</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D7</xm:sqref>
+          <xm:sqref>E6:E7 E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$21:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J7</xm:sqref>
+          <xm:sqref>K6:K7 K9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DropDowns!$A$74:$A$77</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M7</xm:sqref>
+          <xm:sqref>N6:N7 N9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2897,7 +3072,7 @@
   <dimension ref="A3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,11 +3095,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>267</v>
+      <c r="A4" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="B4" s="26">
-        <v>-0.25</v>
+        <v>-0.125</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -2934,130 +3109,67 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>267</v>
+      <c r="A5" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="B5" s="26">
-        <v>8.2199999999999995E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="C5" s="26">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>269</v>
+      <c r="A6" s="36" t="s">
+        <v>343</v>
       </c>
       <c r="B6" s="26">
-        <v>-0.25</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C6" s="26">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="26">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C7" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D7">
-        <v>59</v>
-      </c>
+      <c r="A7" s="34"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="34"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="26">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D9">
-        <v>59</v>
-      </c>
+      <c r="A9" s="34"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C10" s="26">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
+      <c r="A10" s="34"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" s="26">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C11" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
+      <c r="A11" s="34"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="26">
-        <v>-0.25</v>
-      </c>
-      <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
+      <c r="A12" s="40"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="26">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="C13" s="26">
-        <v>0.12</v>
-      </c>
-      <c r="D13">
-        <v>59</v>
-      </c>
+      <c r="A13" s="40"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="2">
